--- a/biology/Zoologie/Devario/Devario.xlsx
+++ b/biology/Zoologie/Devario/Devario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Devario est un genre de poissons téléostéens de la famille des Cyprinidae et de l'ordre des Cypriniformes.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Paradanio Day, 1865
 Eustira Günther, 1868
@@ -546,12 +560,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (26 août 2015)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (26 août 2015) :
 Devario acrostomus F. Fang &amp; Kottelat, 1999
 Devario acuticephala Hora, 1921
-Devario aequipinnatus McClelland, 1839[2]
+Devario aequipinnatus McClelland, 1839
 Devario affinis Blyth, 1860
 Devario annandalei B. L. Chaudhuri, 1908
 Devario anomalus Conway, Mayden &amp; K. L. Tang, 2009
@@ -562,7 +578,7 @@
 Devario browni Regan, 1907
 Devario chrysotaeniatus X. L. Chu, 1981
 devario coxi kullander et al., 2017
-Devario deruptotalea Ramananda &amp; Vishwanath, 2014[3]
+Devario deruptotalea Ramananda &amp; Vishwanath, 2014
 Devario devario F. Hamilton, 1822
 Devario fangfangae Kottelat, 2000
 Devario fraseri Hora, 1935
@@ -588,9 +604,43 @@
 Devario strigillifer G. S. Myers, 1924
 Devario suvatti Fowler, 1939
 Devario xyrops F. Fang &amp; S. O. Kullander, 2009
-Devario yuensis Arunkumar &amp; Tombi Singh, 1998
-Espèce non décrite
-Devario sp. "giraffe"</t>
+Devario yuensis Arunkumar &amp; Tombi Singh, 1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Devario</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Devario</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèce non décrite</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Devario sp. "giraffe"</t>
         </is>
       </c>
     </row>
